--- a/Optimisation_Results.xlsx
+++ b/Optimisation_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unigech-my.sharepoint.com/personal/adrien_wittmann_unige_ch/Documents/Documents/Sarcasm_experiment/NL_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{72F7594E-7AAE-4555-B262-450251E204FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED0CE0EC-03F3-46B1-B632-F903B11E4A3B}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{72F7594E-7AAE-4555-B262-450251E204FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9DEE9A4-E74B-4DB1-929F-01A1692A3D40}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="-10910" windowWidth="19420" windowHeight="10300" xr2:uid="{B5193424-9B8B-4DF9-9906-E86DF8D65605}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B5193424-9B8B-4DF9-9906-E86DF8D65605}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>Model</t>
   </si>
@@ -153,13 +153,55 @@
   </si>
   <si>
     <t>0.06427</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>0.06836</t>
+  </si>
+  <si>
+    <t>0.00756</t>
+  </si>
+  <si>
+    <t>38.194527006438705</t>
+  </si>
+  <si>
+    <t>Opensmile</t>
+  </si>
+  <si>
+    <t>31.92416216816843</t>
+  </si>
+  <si>
+    <t>0.00602</t>
+  </si>
+  <si>
+    <t>0.06222</t>
+  </si>
+  <si>
+    <t>0.00398</t>
+  </si>
+  <si>
+    <t>0.06924</t>
+  </si>
+  <si>
+    <t>20.31654624573168</t>
+  </si>
+  <si>
+    <t>0.00496</t>
+  </si>
+  <si>
+    <t>0.06349</t>
+  </si>
+  <si>
+    <t>24.993915517560957</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,19 +215,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,13 +242,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,6 +265,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C803DF-411B-4FB8-9337-63D92560E37E}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,22 +656,22 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>60</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="2">
         <v>-2</v>
       </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L2" t="s">
@@ -653,22 +700,22 @@
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>60</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G3" s="2">
         <v>-2</v>
       </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L3" t="s">
@@ -677,7 +724,7 @@
       <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -697,22 +744,22 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="3">
         <v>-2</v>
       </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L4" t="s">
@@ -741,22 +788,22 @@
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>60</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="3">
         <v>-3</v>
       </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L5" t="s">
@@ -785,22 +832,22 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>70</v>
+      <c r="F6" s="4">
+        <v>0.7</v>
       </c>
       <c r="G6" s="3">
         <v>-3</v>
       </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L6" t="s">
@@ -829,22 +876,22 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>70</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="3">
         <v>-2</v>
       </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L7" t="s">
@@ -873,22 +920,22 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>70</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="3">
         <v>-1</v>
       </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L8" t="s">
@@ -901,7 +948,210 @@
         <v>36</v>
       </c>
     </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Optimisation_Results.xlsx
+++ b/Optimisation_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unigech-my.sharepoint.com/personal/adrien_wittmann_unige_ch/Documents/Documents/Sarcasm_experiment/NL_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{72F7594E-7AAE-4555-B262-450251E204FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9DEE9A4-E74B-4DB1-929F-01A1692A3D40}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="8_{72F7594E-7AAE-4555-B262-450251E204FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDAD45D8-78A4-4BCF-BF24-D6AB9D4F8EDD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B5193424-9B8B-4DF9-9906-E86DF8D65605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
   <si>
     <t>Model</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>24.993915517560957</t>
+  </si>
+  <si>
+    <t>smoothed</t>
+  </si>
+  <si>
+    <t>31.008587000471508</t>
+  </si>
+  <si>
+    <t>31.008586247444196</t>
   </si>
 </sst>
 </file>
@@ -242,13 +251,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -588,566 +595,699 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C803DF-411B-4FB8-9337-63D92560E37E}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
       <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
         <v>0.6</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2">
         <v>-2</v>
       </c>
-      <c r="H2" s="2">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
       </c>
       <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
         <v>0.6</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3">
         <v>-2</v>
       </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>8</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.6</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4">
         <v>-2</v>
       </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>8</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
         <v>9</v>
       </c>
       <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
         <v>24</v>
       </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
       <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.6</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5">
         <v>-3</v>
       </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
       </c>
       <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
         <v>0.7</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6">
         <v>-3</v>
       </c>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2">
-        <v>8</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
       </c>
       <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>32</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
         <v>0.7</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7">
         <v>-2</v>
       </c>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>8</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>21</v>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
       </c>
       <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
         <v>33</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>34</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
         <v>0.7</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8">
         <v>-1</v>
       </c>
-      <c r="H8" s="2">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>8</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>21</v>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
       </c>
       <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
         <v>37</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>38</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
         <v>0.7</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9">
         <v>-2</v>
       </c>
-      <c r="H9" s="2">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2">
-        <v>8</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>21</v>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
       </c>
       <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
         <v>45</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>46</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
         <v>0.7</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10">
         <v>-2</v>
       </c>
-      <c r="H10" s="2">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>8</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>21</v>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
       </c>
       <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
         <v>41</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>40</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
         <v>0.7</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11">
         <v>-2</v>
       </c>
-      <c r="H11" s="2">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2">
-        <v>8</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>21</v>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
       </c>
       <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
         <v>47</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>48</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="D12">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
         <v>0.7</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12">
         <v>-2</v>
       </c>
-      <c r="H12" s="2">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2">
-        <v>8</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>21</v>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
       </c>
       <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
         <v>50</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>51</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
         <v>20</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13">
         <v>-2</v>
       </c>
-      <c r="H13" s="2">
-        <v>3</v>
-      </c>
-      <c r="I13" s="2">
-        <v>8</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>21</v>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H15">
+        <v>-2</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H16">
+        <v>-2</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Optimisation_Results.xlsx
+++ b/Optimisation_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unigech-my.sharepoint.com/personal/adrien_wittmann_unige_ch/Documents/Documents/Sarcasm_experiment/NL_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="8_{72F7594E-7AAE-4555-B262-450251E204FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDAD45D8-78A4-4BCF-BF24-D6AB9D4F8EDD}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{72F7594E-7AAE-4555-B262-450251E204FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23099FA1-9505-4BC2-BCA2-88BB75AEC0D7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B5193424-9B8B-4DF9-9906-E86DF8D65605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
   <si>
     <t>Model</t>
   </si>
@@ -595,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C803DF-411B-4FB8-9337-63D92560E37E}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="K14" sqref="K14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1196,97 +1196,132 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>-2</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E15">
-        <v>25</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
         <v>0.7</v>
       </c>
-      <c r="H15">
+      <c r="H17">
         <v>-2</v>
       </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>8</v>
-      </c>
-      <c r="K15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
         <v>33</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N17" t="s">
         <v>34</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E16">
-        <v>25</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
         <v>0.7</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <v>-2</v>
       </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>8</v>
-      </c>
-      <c r="K16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
         <v>33</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N18" t="s">
         <v>34</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O18" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Optimisation_Results.xlsx
+++ b/Optimisation_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unigech-my.sharepoint.com/personal/adrien_wittmann_unige_ch/Documents/Documents/Sarcasm_experiment/NL_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{72F7594E-7AAE-4555-B262-450251E204FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23099FA1-9505-4BC2-BCA2-88BB75AEC0D7}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{72F7594E-7AAE-4555-B262-450251E204FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7E560A9-0CEC-44B0-AC3E-0F3C446EC41D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B5193424-9B8B-4DF9-9906-E86DF8D65605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
   <si>
     <t>Model</t>
   </si>
@@ -210,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +229,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,12 +257,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +607,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:L14"/>
+      <selection activeCell="L13" sqref="L13:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1192,9 +1201,6 @@
       <c r="K13" t="s">
         <v>9</v>
       </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1227,9 +1233,8 @@
       <c r="K14" t="s">
         <v>9</v>
       </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">

--- a/Optimisation_Results.xlsx
+++ b/Optimisation_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unigech-my.sharepoint.com/personal/adrien_wittmann_unige_ch/Documents/Documents/Sarcasm_experiment/NL_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="8_{72F7594E-7AAE-4555-B262-450251E204FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7E560A9-0CEC-44B0-AC3E-0F3C446EC41D}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="8_{72F7594E-7AAE-4555-B262-450251E204FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E38FF1E2-3B66-4D25-A46F-E97501651C7A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B5193424-9B8B-4DF9-9906-E86DF8D65605}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
   <si>
     <t>Model</t>
   </si>
@@ -204,13 +204,49 @@
   </si>
   <si>
     <t>31.008586247444196</t>
+  </si>
+  <si>
+    <t>0.06530</t>
+  </si>
+  <si>
+    <t>0.00517</t>
+  </si>
+  <si>
+    <t>26.168021492403696</t>
+  </si>
+  <si>
+    <t>0.00423</t>
+  </si>
+  <si>
+    <t>0.06672</t>
+  </si>
+  <si>
+    <t>21.898859188148815</t>
+  </si>
+  <si>
+    <t>0.06594</t>
+  </si>
+  <si>
+    <t>26.90157045176027</t>
+  </si>
+  <si>
+    <t>0.00518</t>
+  </si>
+  <si>
+    <t>29.01739522352695</t>
+  </si>
+  <si>
+    <t>0.00575</t>
+  </si>
+  <si>
+    <t>0.06375</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,12 +265,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFB5CEA8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -257,15 +287,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C803DF-411B-4FB8-9337-63D92560E37E}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:O14"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1201,6 +1228,18 @@
       <c r="K13" t="s">
         <v>9</v>
       </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1233,100 +1272,198 @@
       <c r="K14" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>-2</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>-2</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E17">
-        <v>25</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2">
         <v>0.7</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <v>-2</v>
       </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>8</v>
-      </c>
-      <c r="K17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" t="s">
         <v>33</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N19" t="s">
         <v>34</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
         <v>11</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="E18">
-        <v>25</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
         <v>0.7</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <v>-2</v>
       </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>8</v>
-      </c>
-      <c r="K18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
         <v>33</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N20" t="s">
         <v>34</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O20" t="s">
         <v>55</v>
       </c>
     </row>
